--- a/F429ZI_문서/PIN위치.xlsx
+++ b/F429ZI_문서/PIN위치.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\STM32\F429ZI_문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400591A2-8F47-472D-82C3-85AE33E604F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581E1E4-A925-49DC-A297-135DE295B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282B0CEB-A245-4D1F-BB31-3E8A9CCD9967}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
   <si>
     <t>PC8</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>reset</t>
+  </si>
+  <si>
+    <t>ST-LINK USB 5V</t>
   </si>
 </sst>
 </file>
@@ -803,524 +806,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69456A3-EB48-44BD-816D-A6B43EFEF9DF}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
         <v>76</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>131</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>82</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>88</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>128</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>89</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>129</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>90</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>91</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
         <v>93</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>94</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>95</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>96</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>97</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>98</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="M25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>99</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>100</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>101</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>102</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>37</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>103</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
         <v>104</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>105</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>106</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>107</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
